--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -292,7 +292,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="35">
+  <x:cellStyleXfs count="34">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -338,6 +338,12 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -347,15 +353,6 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -399,7 +396,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="29">
+  <x:cellXfs count="30">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -460,6 +457,14 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -470,10 +475,6 @@
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -883,150 +884,149 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.71" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.41" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.41" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.7" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.27" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.55" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="3.71" style="15" customWidth="1"/>
-    <x:col min="8" max="8" width="15.41" style="15" customWidth="1"/>
-    <x:col min="9" max="9" width="3.71" style="15" customWidth="1"/>
-    <x:col min="10" max="10" width="15.27" style="15" customWidth="1"/>
-    <x:col min="11" max="16384" width="9.850625" style="15" customWidth="1"/>
+    <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.410625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="15.270625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
-      <x:c r="B2" s="15" t="s">
+      <x:c r="B2" s="17" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="15" t="s">
+      <x:c r="C2" s="17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="15" t="s">
+      <x:c r="D2" s="17" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="15" t="s">
+      <x:c r="E2" s="17" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="15" t="s">
+      <x:c r="F2" s="17" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="15" t="s"/>
-      <x:c r="H2" s="15" t="s">
+      <x:c r="G2" s="17" t="s"/>
+      <x:c r="H2" s="17" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="15" t="s"/>
-      <x:c r="J2" s="15" t="s">
+      <x:c r="I2" s="17" t="s"/>
+      <x:c r="J2" s="17" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="B3" s="15" t="s">
+      <x:c r="B3" s="17" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C3" s="15" t="s">
+      <x:c r="C3" s="17" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D3" s="15" t="b">
+      <x:c r="D3" s="17" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" s="16">
+      <x:c r="E3" s="18">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F3" s="17" t="n">
+      <x:c r="F3" s="19" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="G3" s="15" t="s"/>
-      <x:c r="H3" s="15" t="s">
+      <x:c r="G3" s="17" t="s"/>
+      <x:c r="H3" s="17" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I3" s="15" t="s"/>
-      <x:c r="J3" s="15" t="s">
+      <x:c r="I3" s="17" t="s"/>
+      <x:c r="J3" s="17" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="B4" s="15" t="s">
+      <x:c r="B4" s="17" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="15" t="s">
+      <x:c r="C4" s="17" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D4" s="15" t="b">
+      <x:c r="D4" s="17" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E4" s="16">
+      <x:c r="E4" s="18">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F4" s="17" t="n">
+      <x:c r="F4" s="19" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="G4" s="15" t="s"/>
-      <x:c r="H4" s="15" t="s">
+      <x:c r="G4" s="17" t="s"/>
+      <x:c r="H4" s="17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I4" s="15" t="s"/>
-      <x:c r="J4" s="15" t="s">
+      <x:c r="I4" s="17" t="s"/>
+      <x:c r="J4" s="17" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="B5" s="15" t="s">
+      <x:c r="B5" s="17" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="15" t="s">
+      <x:c r="C5" s="17" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="15" t="b">
+      <x:c r="D5" s="17" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="16">
+      <x:c r="E5" s="18">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F5" s="17" t="n">
+      <x:c r="F5" s="19" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="G5" s="15" t="s"/>
-      <x:c r="H5" s="15" t="s">
+      <x:c r="G5" s="17" t="s"/>
+      <x:c r="H5" s="17" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="I5" s="15" t="s"/>
-      <x:c r="J5" s="15" t="s">
+      <x:c r="I5" s="17" t="s"/>
+      <x:c r="J5" s="17" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="B6" s="15" t="s">
+      <x:c r="B6" s="17" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6" s="15" t="s"/>
-      <x:c r="D6" s="15" t="s"/>
-      <x:c r="E6" s="15" t="s"/>
-      <x:c r="F6" s="17" t="n">
+      <x:c r="C6" s="17" t="s"/>
+      <x:c r="D6" s="17" t="s"/>
+      <x:c r="E6" s="17" t="s"/>
+      <x:c r="F6" s="19" t="n">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
-      <x:c r="G6" s="15" t="s"/>
-      <x:c r="H6" s="15" t="s">
+      <x:c r="G6" s="17" t="s"/>
+      <x:c r="H6" s="17" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I6" s="15" t="s"/>
-      <x:c r="J6" s="15" t="s"/>
+      <x:c r="I6" s="17" t="s"/>
+      <x:c r="J6" s="17" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="B7" s="15" t="s"/>
-      <x:c r="C7" s="15" t="s"/>
-      <x:c r="D7" s="15" t="s"/>
-      <x:c r="E7" s="15" t="s"/>
-      <x:c r="F7" s="15" t="s"/>
-      <x:c r="H7" s="15" t="s">
+      <x:c r="B7" s="17" t="s"/>
+      <x:c r="C7" s="17" t="s"/>
+      <x:c r="D7" s="17" t="s"/>
+      <x:c r="E7" s="17" t="s"/>
+      <x:c r="F7" s="17" t="s"/>
+      <x:c r="H7" s="17" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="H8" s="15">
+      <x:c r="H8" s="17">
         <x:f>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:f>
       </x:c>
     </x:row>
@@ -1061,148 +1061,147 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
-    <x:col min="11" max="16384" width="9.850625" style="15" customWidth="1"/>
-    <x:col min="1" max="1" width="3.71" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.41" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.41" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.7" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.27" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.55" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="3.71" style="15" customWidth="1"/>
-    <x:col min="8" max="8" width="15.41" style="15" customWidth="1"/>
-    <x:col min="9" max="9" width="3.71" style="15" customWidth="1"/>
-    <x:col min="10" max="10" width="15.27" style="15" customWidth="1"/>
+    <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.410625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="15.270625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
-      <x:c r="B2" s="15" t="s">
+      <x:c r="B2" s="17" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="15" t="s">
+      <x:c r="C2" s="17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="15" t="s">
+      <x:c r="D2" s="17" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="15" t="s">
+      <x:c r="E2" s="17" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="15" t="s">
+      <x:c r="F2" s="17" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="15" t="s"/>
-      <x:c r="H2" s="15" t="s">
+      <x:c r="G2" s="17" t="s"/>
+      <x:c r="H2" s="17" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="15" t="s"/>
-      <x:c r="J2" s="15" t="s">
+      <x:c r="I2" s="17" t="s"/>
+      <x:c r="J2" s="17" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="B3" s="15" t="s">
+      <x:c r="B3" s="17" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C3" s="15" t="s">
+      <x:c r="C3" s="17" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D3" s="15" t="b">
+      <x:c r="D3" s="17" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" s="16">
+      <x:c r="E3" s="18">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F3" s="17" t="n">
+      <x:c r="F3" s="19" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="G3" s="15" t="s"/>
-      <x:c r="H3" s="15" t="s">
+      <x:c r="G3" s="17" t="s"/>
+      <x:c r="H3" s="17" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I3" s="15" t="s"/>
-      <x:c r="J3" s="15" t="s">
+      <x:c r="I3" s="17" t="s"/>
+      <x:c r="J3" s="17" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="B4" s="15" t="s">
+      <x:c r="B4" s="17" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="15" t="s">
+      <x:c r="C4" s="17" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D4" s="15" t="b">
+      <x:c r="D4" s="17" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E4" s="16">
+      <x:c r="E4" s="18">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F4" s="17" t="n">
+      <x:c r="F4" s="19" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="G4" s="15" t="s"/>
-      <x:c r="H4" s="15" t="s">
+      <x:c r="G4" s="17" t="s"/>
+      <x:c r="H4" s="17" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I4" s="15" t="s"/>
-      <x:c r="J4" s="15" t="s">
+      <x:c r="I4" s="17" t="s"/>
+      <x:c r="J4" s="17" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="B5" s="15" t="s">
+      <x:c r="B5" s="17" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="15" t="s">
+      <x:c r="C5" s="17" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="15" t="b">
+      <x:c r="D5" s="17" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="16">
+      <x:c r="E5" s="18">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F5" s="17" t="n">
+      <x:c r="F5" s="19" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="G5" s="15" t="s"/>
-      <x:c r="H5" s="15" t="s">
+      <x:c r="G5" s="17" t="s"/>
+      <x:c r="H5" s="17" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="I5" s="15" t="s"/>
-      <x:c r="J5" s="15" t="s">
+      <x:c r="I5" s="17" t="s"/>
+      <x:c r="J5" s="17" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="B6" s="15" t="s">
+      <x:c r="B6" s="17" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6" s="15" t="s"/>
-      <x:c r="D6" s="15" t="s"/>
-      <x:c r="E6" s="15" t="s"/>
-      <x:c r="F6" s="17">
+      <x:c r="C6" s="17" t="s"/>
+      <x:c r="D6" s="17" t="s"/>
+      <x:c r="E6" s="17" t="s"/>
+      <x:c r="F6" s="19">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
-      <x:c r="G6" s="15" t="s"/>
-      <x:c r="H6" s="15" t="s">
+      <x:c r="G6" s="17" t="s"/>
+      <x:c r="H6" s="17" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I6" s="15" t="s"/>
-      <x:c r="J6" s="15" t="s"/>
+      <x:c r="I6" s="17" t="s"/>
+      <x:c r="J6" s="17" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="B7" s="15" t="s"/>
-      <x:c r="C7" s="15" t="s"/>
-      <x:c r="D7" s="15" t="s"/>
-      <x:c r="E7" s="15" t="s"/>
-      <x:c r="F7" s="15" t="s"/>
-      <x:c r="H7" s="15" t="s">
+      <x:c r="B7" s="17" t="s"/>
+      <x:c r="C7" s="17" t="s"/>
+      <x:c r="D7" s="17" t="s"/>
+      <x:c r="E7" s="17" t="s"/>
+      <x:c r="F7" s="17" t="s"/>
+      <x:c r="H7" s="17" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="H8" s="15">
+      <x:c r="H8" s="17">
         <x:f>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:f>
       </x:c>
     </x:row>
@@ -1237,23 +1236,22 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
-    <x:col min="7" max="16384" width="9.850625" style="15" customWidth="1"/>
-    <x:col min="1" max="1" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.27" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.41" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.7" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.27" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.55" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
       <x:c r="B2" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C2" s="19" t="s"/>
-      <x:c r="D2" s="19" t="s"/>
-      <x:c r="E2" s="19" t="s"/>
-      <x:c r="F2" s="20" t="s"/>
+      <x:c r="C2" s="20" t="s"/>
+      <x:c r="D2" s="20" t="s"/>
+      <x:c r="E2" s="20" t="s"/>
+      <x:c r="F2" s="21" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="4" t="s">
@@ -1273,53 +1271,53 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="21" t="s">
+      <x:c r="B4" s="22" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C4" s="22" t="s">
+      <x:c r="C4" s="23" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D4" s="22" t="b">
+      <x:c r="D4" s="23" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="23">
+      <x:c r="E4" s="24">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F4" s="24" t="n">
+      <x:c r="F4" s="25" t="n">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="21" t="s">
+      <x:c r="B5" s="22" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C5" s="22" t="s">
+      <x:c r="C5" s="23" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D5" s="22" t="b">
+      <x:c r="D5" s="23" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="23">
+      <x:c r="E5" s="24">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="24" t="n">
+      <x:c r="F5" s="25" t="n">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="25" t="s">
+      <x:c r="B6" s="26" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C6" s="26" t="s">
+      <x:c r="C6" s="27" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D6" s="26" t="b">
+      <x:c r="D6" s="27" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E6" s="27">
+      <x:c r="E6" s="28">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F6" s="28" t="n">
+      <x:c r="F6" s="29" t="n">
         <x:v>10000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -292,7 +292,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="34">
+  <x:cellStyleXfs count="51">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -342,6 +342,57 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
@@ -524,7 +575,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/tablea.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F6" totalsRowCount="1">
   <x:autoFilter ref="B2:F5"/>
   <x:tableColumns count="5">
@@ -538,7 +589,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/tableb.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Headers" displayName="Headers" ref="H2:H8" totalsRowCount="1">
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="Table Headers" totalsRowFunction="custom">
@@ -549,7 +600,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/tablec.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="J2:J5" totalsRowShown="0">
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="Names"/>
@@ -558,7 +609,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/tabled.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table11" displayName="Table11" ref="B2:F6" totalsRowCount="1">
   <x:autoFilter ref="B2:F5"/>
   <x:tableColumns count="5">
@@ -572,7 +623,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/tablee.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Headers1" displayName="Headers1" ref="H2:H8" totalsRowCount="1">
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="Table Headers" totalsRowFunction="custom">
@@ -583,7 +634,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/tablef.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table21" displayName="Table21" ref="J2:J5" totalsRowShown="0">
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="Names"/>
@@ -1059,7 +1110,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <x:sheetFormatPr defaultColWidth="9.85125" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.410625" style="0" customWidth="1"/>
@@ -1234,7 +1285,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <x:sheetFormatPr defaultColWidth="9.85125" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -292,7 +292,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="51">
+  <x:cellStyleXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -344,24 +344,9 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -371,48 +356,9 @@
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -422,32 +368,8 @@
     <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="30">
+  <x:cellXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -514,58 +436,6 @@
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -950,136 +820,161 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
-      <x:c r="B2" s="17" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="17" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="17" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="17" t="s">
+      <x:c r="E2" s="15" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="17" t="s">
+      <x:c r="F2" s="16" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="17" t="s"/>
-      <x:c r="H2" s="17" t="s">
+      <x:c r="G2" s="0" t="s"/>
+      <x:c r="H2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="17" t="s"/>
-      <x:c r="J2" s="17" t="s">
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="B3" s="17" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C3" s="17" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D3" s="17" t="b">
+      <x:c r="D3" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" s="18">
+      <x:c r="E3" s="15">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F3" s="19" t="n">
+      <x:c r="F3" s="16" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="G3" s="17" t="s"/>
-      <x:c r="H3" s="17" t="s">
+      <x:c r="G3" s="0" t="s"/>
+      <x:c r="H3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I3" s="17" t="s"/>
-      <x:c r="J3" s="17" t="s">
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="B4" s="17" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="17" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D4" s="17" t="b">
+      <x:c r="D4" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E4" s="18">
+      <x:c r="E4" s="15">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F4" s="19" t="n">
+      <x:c r="F4" s="16" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="G4" s="17" t="s"/>
-      <x:c r="H4" s="17" t="s">
+      <x:c r="G4" s="0" t="s"/>
+      <x:c r="H4" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I4" s="17" t="s"/>
-      <x:c r="J4" s="17" t="s">
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="B5" s="17" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="17" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="17" t="b">
+      <x:c r="D5" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="18">
+      <x:c r="E5" s="15">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F5" s="19" t="n">
+      <x:c r="F5" s="16" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="G5" s="17" t="s"/>
-      <x:c r="H5" s="17" t="s">
+      <x:c r="G5" s="0" t="s"/>
+      <x:c r="H5" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="I5" s="17" t="s"/>
-      <x:c r="J5" s="17" t="s">
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="B6" s="17" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6" s="17" t="s"/>
-      <x:c r="D6" s="17" t="s"/>
-      <x:c r="E6" s="17" t="s"/>
-      <x:c r="F6" s="19" t="n">
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="15" t="s"/>
+      <x:c r="F6" s="16" t="n">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
-      <x:c r="G6" s="17" t="s"/>
-      <x:c r="H6" s="17" t="s">
+      <x:c r="G6" s="0" t="s"/>
+      <x:c r="H6" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I6" s="17" t="s"/>
-      <x:c r="J6" s="17" t="s"/>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="B7" s="17" t="s"/>
-      <x:c r="C7" s="17" t="s"/>
-      <x:c r="D7" s="17" t="s"/>
-      <x:c r="E7" s="17" t="s"/>
-      <x:c r="F7" s="17" t="s"/>
-      <x:c r="H7" s="17" t="s">
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="15" t="s"/>
+      <x:c r="F7" s="16" t="s"/>
+      <x:c r="H7" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="H8" s="17">
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="15" t="s"/>
+      <x:c r="F8" s="16" t="s"/>
+      <x:c r="H8" s="0">
         <x:f>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:f>
       </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="15" t="s"/>
+      <x:c r="F9" s="16" t="s"/>
+      <x:c r="H9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="H10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="H11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="H12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="H13" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1106,7 +1001,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J8"/>
+  <x:dimension ref="A1:J13"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -1125,136 +1020,161 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
-      <x:c r="B2" s="17" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="17" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="17" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="17" t="s">
+      <x:c r="E2" s="15" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="17" t="s">
+      <x:c r="F2" s="16" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="17" t="s"/>
-      <x:c r="H2" s="17" t="s">
+      <x:c r="G2" s="0" t="s"/>
+      <x:c r="H2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="17" t="s"/>
-      <x:c r="J2" s="17" t="s">
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="B3" s="17" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C3" s="17" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D3" s="17" t="b">
+      <x:c r="D3" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" s="18">
+      <x:c r="E3" s="15">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F3" s="19" t="n">
+      <x:c r="F3" s="16" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="G3" s="17" t="s"/>
-      <x:c r="H3" s="17" t="s">
+      <x:c r="G3" s="0" t="s"/>
+      <x:c r="H3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I3" s="17" t="s"/>
-      <x:c r="J3" s="17" t="s">
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="B4" s="17" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="17" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D4" s="17" t="b">
+      <x:c r="D4" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E4" s="18">
+      <x:c r="E4" s="15">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F4" s="19" t="n">
+      <x:c r="F4" s="16" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="G4" s="17" t="s"/>
-      <x:c r="H4" s="17" t="s">
+      <x:c r="G4" s="0" t="s"/>
+      <x:c r="H4" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I4" s="17" t="s"/>
-      <x:c r="J4" s="17" t="s">
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="B5" s="17" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="17" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="17" t="b">
+      <x:c r="D5" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="18">
+      <x:c r="E5" s="15">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F5" s="19" t="n">
+      <x:c r="F5" s="16" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="G5" s="17" t="s"/>
-      <x:c r="H5" s="17" t="s">
+      <x:c r="G5" s="0" t="s"/>
+      <x:c r="H5" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="I5" s="17" t="s"/>
-      <x:c r="J5" s="17" t="s">
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="B6" s="17" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6" s="17" t="s"/>
-      <x:c r="D6" s="17" t="s"/>
-      <x:c r="E6" s="17" t="s"/>
-      <x:c r="F6" s="19">
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="15" t="s"/>
+      <x:c r="F6" s="16">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
-      <x:c r="G6" s="17" t="s"/>
-      <x:c r="H6" s="17" t="s">
+      <x:c r="G6" s="0" t="s"/>
+      <x:c r="H6" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I6" s="17" t="s"/>
-      <x:c r="J6" s="17" t="s"/>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="B7" s="17" t="s"/>
-      <x:c r="C7" s="17" t="s"/>
-      <x:c r="D7" s="17" t="s"/>
-      <x:c r="E7" s="17" t="s"/>
-      <x:c r="F7" s="17" t="s"/>
-      <x:c r="H7" s="17" t="s">
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="15" t="s"/>
+      <x:c r="F7" s="16" t="s"/>
+      <x:c r="H7" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="H8" s="17">
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="15" t="s"/>
+      <x:c r="F8" s="16" t="s"/>
+      <x:c r="H8" s="0">
         <x:f>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:f>
       </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="15" t="s"/>
+      <x:c r="F9" s="16" t="s"/>
+      <x:c r="H9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="H10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="H11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="H12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="H13" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1299,10 +1219,10 @@
       <x:c r="B2" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C2" s="20" t="s"/>
-      <x:c r="D2" s="20" t="s"/>
-      <x:c r="E2" s="20" t="s"/>
-      <x:c r="F2" s="21" t="s"/>
+      <x:c r="C2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="4" t="s">
@@ -1322,53 +1242,53 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="22" t="s">
+      <x:c r="B4" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C4" s="23" t="s">
+      <x:c r="C4" s="8" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D4" s="23" t="b">
+      <x:c r="D4" s="8" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="24">
+      <x:c r="E4" s="9">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F4" s="25" t="n">
+      <x:c r="F4" s="10" t="n">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="22" t="s">
+      <x:c r="B5" s="7" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C5" s="23" t="s">
+      <x:c r="C5" s="8" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D5" s="23" t="b">
+      <x:c r="D5" s="8" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="24">
+      <x:c r="E5" s="9">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="25" t="n">
+      <x:c r="F5" s="10" t="n">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="26" t="s">
+      <x:c r="B6" s="11" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C6" s="27" t="s">
+      <x:c r="C6" s="12" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D6" s="27" t="b">
+      <x:c r="D6" s="12" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E6" s="28">
+      <x:c r="E6" s="13">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F6" s="29" t="n">
+      <x:c r="F6" s="14" t="n">
         <x:v>10000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -980,14 +980,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="3">
     <x:tablePart r:id="rId7"/>
     <x:tablePart r:id="rId9"/>
@@ -1180,14 +1173,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="3">
     <x:tablePart r:id="rId11"/>
     <x:tablePart r:id="rId12"/>
@@ -1299,14 +1285,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -808,15 +808,14 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.410625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.1090625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="15.270625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
@@ -1001,15 +1000,14 @@
   <x:sheetFormatPr defaultColWidth="9.85125" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.410625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.1090625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="15.270625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
@@ -1194,11 +1192,10 @@
   <x:sheetFormatPr defaultColWidth="9.85125" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
@@ -997,7 +997,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.85125" defaultRowHeight="15" customHeight="1"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="15.1090625" style="0" customWidth="1"/>
@@ -1189,7 +1189,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.85125" defaultRowHeight="15" customHeight="1"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.1090625" style="0" customWidth="1"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -808,14 +808,14 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.10125" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.10125" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.1090625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.10125" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.1090625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
@@ -1000,14 +1000,14 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.10125" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.10125" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.1090625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.10125" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.1090625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="14.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
@@ -1192,10 +1192,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="9.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.085625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.085625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -808,14 +808,15 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.10125" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="9.10125" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.10125" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.410625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.10125" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="15.270625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
@@ -939,41 +940,16 @@
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="15" t="s"/>
-      <x:c r="F7" s="16" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s"/>
       <x:c r="H7" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="15" t="s"/>
-      <x:c r="F8" s="16" t="s"/>
       <x:c r="H8" s="0">
         <x:f>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:f>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="15" t="s"/>
-      <x:c r="F9" s="16" t="s"/>
-      <x:c r="H9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="H10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="H11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="H12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="H13" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -993,21 +969,22 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J13"/>
+  <x:dimension ref="A1:J8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.10125" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="9.10125" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.10125" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.410625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.10125" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="15.270625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
@@ -1131,41 +1108,16 @@
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="15" t="s"/>
-      <x:c r="F7" s="16" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s"/>
       <x:c r="H7" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="15" t="s"/>
-      <x:c r="F8" s="16" t="s"/>
       <x:c r="H8" s="0">
         <x:f>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:f>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="15" t="s"/>
-      <x:c r="F9" s="16" t="s"/>
-      <x:c r="H9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="H10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="H11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="H12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="H13" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1192,11 +1144,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.085625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.10125" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.085625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>FName</x:t>
   </x:si>
@@ -67,9 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Sum Of Income</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONCATENATE("Count: ", CountA(Headers[Table Headers]))</x:t>
   </x:si>
   <x:si>
     <x:t>Contacts</x:t>
@@ -1153,7 +1150,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:6">
       <x:c r="B2" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s"/>
       <x:c r="D2" s="2" t="s"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -7,8 +7,8 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Contacts Table" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Copy" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Copy From Other" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Copy" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Copy From Other" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -954,9 +954,9 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="3">
-    <x:tablePart r:id="rId7"/>
-    <x:tablePart r:id="rId9"/>
     <x:tablePart r:id="rId10"/>
+    <x:tablePart r:id="rId11"/>
+    <x:tablePart r:id="rId12"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -1122,9 +1122,9 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="3">
-    <x:tablePart r:id="rId11"/>
-    <x:tablePart r:id="rId12"/>
     <x:tablePart r:id="rId13"/>
+    <x:tablePart r:id="rId14"/>
+    <x:tablePart r:id="rId15"/>
   </x:tableParts>
 </x:worksheet>
 </file>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -1120,7 +1120,14 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
   <x:tableParts count="3">
     <x:tablePart r:id="rId13"/>
     <x:tablePart r:id="rId14"/>
@@ -1232,7 +1239,14 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter/>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -80,7 +80,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="5">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -90,6 +90,27 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -289,7 +310,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="25">
+  <x:cellStyleXfs count="27">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -335,6 +356,12 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -366,7 +393,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="17">
+  <x:cellXfs count="19">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -424,6 +451,14 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -826,10 +861,10 @@
       <x:c r="D2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="15" t="s">
+      <x:c r="E2" s="17" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="16" t="s">
+      <x:c r="F2" s="18" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s"/>
@@ -851,10 +886,10 @@
       <x:c r="D3" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" s="15">
+      <x:c r="E3" s="17">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F3" s="16" t="n">
+      <x:c r="F3" s="18" t="n">
         <x:v>2000</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s"/>
@@ -876,10 +911,10 @@
       <x:c r="D4" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E4" s="15">
+      <x:c r="E4" s="17">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F4" s="16" t="n">
+      <x:c r="F4" s="18" t="n">
         <x:v>40000</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s"/>
@@ -901,10 +936,10 @@
       <x:c r="D5" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="15">
+      <x:c r="E5" s="17">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F5" s="16" t="n">
+      <x:c r="F5" s="18" t="n">
         <x:v>10000</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s"/>
@@ -922,8 +957,8 @@
       </x:c>
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="15" t="s"/>
-      <x:c r="F6" s="16" t="n">
+      <x:c r="E6" s="17" t="s"/>
+      <x:c r="F6" s="18" t="n">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
       <x:c r="G6" s="0" t="s"/>
@@ -994,10 +1029,10 @@
       <x:c r="D2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="15" t="s">
+      <x:c r="E2" s="17" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="16" t="s">
+      <x:c r="F2" s="18" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s"/>
@@ -1019,10 +1054,10 @@
       <x:c r="D3" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" s="15">
+      <x:c r="E3" s="17">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F3" s="16" t="n">
+      <x:c r="F3" s="18" t="n">
         <x:v>2000</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s"/>
@@ -1044,10 +1079,10 @@
       <x:c r="D4" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E4" s="15">
+      <x:c r="E4" s="17">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F4" s="16" t="n">
+      <x:c r="F4" s="18" t="n">
         <x:v>40000</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s"/>
@@ -1069,10 +1104,10 @@
       <x:c r="D5" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="15">
+      <x:c r="E5" s="17">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F5" s="16" t="n">
+      <x:c r="F5" s="18" t="n">
         <x:v>10000</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s"/>
@@ -1090,8 +1125,8 @@
       </x:c>
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="15" t="s"/>
-      <x:c r="F6" s="16">
+      <x:c r="E6" s="17" t="s"/>
+      <x:c r="F6" s="18">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
       <x:c r="G6" s="0" t="s"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -835,7 +835,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -1003,7 +1003,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:J8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -1178,7 +1178,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -840,15 +840,15 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.890625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.440625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.210625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.410625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="14.010625000000001" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="15.270625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="13.830625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
@@ -1008,15 +1008,15 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.410625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.890625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.440625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.210625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.410625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="14.010625000000001" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="15.270625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="13.830625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:10">
@@ -1183,11 +1183,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.270625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.550625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.280625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -356,10 +356,10 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
@@ -454,11 +454,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -356,10 +356,10 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
@@ -454,11 +454,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -311,162 +311,162 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="27">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="19">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -846,7 +846,7 @@
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.210625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.010625000000001" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="14.010625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.830625" style="0" customWidth="1"/>
   </x:cols>
@@ -867,11 +867,9 @@
       <x:c r="F2" s="18" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s"/>
       <x:c r="H2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -892,11 +890,9 @@
       <x:c r="F3" s="18" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s"/>
       <x:c r="H3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -917,11 +913,9 @@
       <x:c r="F4" s="18" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s"/>
       <x:c r="H4" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -942,11 +936,9 @@
       <x:c r="F5" s="18" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s"/>
       <x:c r="H5" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -955,25 +947,15 @@
       <x:c r="B6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="17" t="s"/>
       <x:c r="F6" s="18" t="n">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
-      <x:c r="G6" s="0" t="s"/>
       <x:c r="H6" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I6" s="0" t="s"/>
-      <x:c r="J6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
-      <x:c r="F7" s="0" t="s"/>
       <x:c r="H7" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1014,7 +996,7 @@
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.210625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.010625000000001" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="14.010625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.830625" style="0" customWidth="1"/>
   </x:cols>
@@ -1035,11 +1017,9 @@
       <x:c r="F2" s="18" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s"/>
       <x:c r="H2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -1060,11 +1040,9 @@
       <x:c r="F3" s="18" t="n">
         <x:v>2000</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s"/>
       <x:c r="H3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -1085,11 +1063,9 @@
       <x:c r="F4" s="18" t="n">
         <x:v>40000</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s"/>
       <x:c r="H4" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -1110,11 +1086,9 @@
       <x:c r="F5" s="18" t="n">
         <x:v>10000</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s"/>
       <x:c r="H5" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -1123,25 +1097,15 @@
       <x:c r="B6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="17" t="s"/>
       <x:c r="F6" s="18">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
-      <x:c r="G6" s="0" t="s"/>
       <x:c r="H6" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I6" s="0" t="s"/>
-      <x:c r="J6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
-      <x:c r="F7" s="0" t="s"/>
       <x:c r="H7" s="0" t="s">
         <x:v>4</x:v>
       </x:c>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -78,7 +78,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
   </x:numFmts>
   <x:fonts count="5">
     <x:font>
@@ -341,7 +341,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -353,19 +353,19 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -434,7 +434,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -450,7 +450,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -458,7 +458,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -466,7 +466,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
